--- a/DMDD/Casus/Rubric_CaseStudy_1_ERM.xlsx
+++ b/DMDD/Casus/Rubric_CaseStudy_1_ERM.xlsx
@@ -3397,7 +3397,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="15">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="14">
   <userInfo guid="{A21463E6-5312-9D4B-AD63-ADAF7F44CB8D}" name="Jonge Matthijs de" id="-536591795" dateTime="2018-09-20T13:29:45"/>
   <userInfo guid="{B60F2E23-B8EB-9D44-85D7-5A916A9A4479}" name="Jonge Matthijs de" id="-536543755" dateTime="2018-09-20T14:17:31"/>
   <userInfo guid="{D2D916AE-92C4-C644-BC58-F1706B8F2F09}" name="Jonge Matthijs de" id="-536577411" dateTime="2018-10-03T14:54:33"/>
@@ -3412,7 +3412,6 @@
   <userInfo guid="{44EE45E0-BC3F-5D4F-99B1-7AC03C0EDCEB}" name="Jonge Matthijs de" id="-536563925" dateTime="2019-09-02T12:10:50"/>
   <userInfo guid="{0E04D7C2-32E7-B240-9812-D202126ADE2D}" name="Jonge Matthijs de" id="-536561094" dateTime="2019-09-09T09:49:25"/>
   <userInfo guid="{6CBC2D80-8BAC-9C4B-836C-A99C6FF16BAC}" name="Jonge Matthijs de" id="-536597621" dateTime="2019-09-09T10:49:35"/>
-  <userInfo guid="{6CBC2D80-8BAC-9C4B-836C-A99C6FF16BAC}" name="Joey Sparidaans" id="-767493892" dateTime="2019-09-17T10:10:35"/>
 </users>
 </file>
 
